--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il12b-Il23r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il12b-Il23r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
     <t>Neutrophils</t>
   </si>
   <si>
+    <t>Il12b</t>
+  </si>
+  <si>
+    <t>Il23r</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Il12b</t>
-  </si>
-  <si>
-    <t>Il23r</t>
   </si>
 </sst>
 </file>
@@ -446,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,10 +516,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -534,46 +531,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.7488436666666667</v>
+        <v>0.327697</v>
       </c>
       <c r="H2">
-        <v>2.246531</v>
+        <v>0.9830909999999999</v>
       </c>
       <c r="I2">
-        <v>0.3276685070205272</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.3276685070205272</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.031382</v>
+        <v>0.2324893333333333</v>
       </c>
       <c r="N2">
-        <v>0.09414600000000001</v>
+        <v>0.697468</v>
       </c>
       <c r="O2">
-        <v>0.1663877219554525</v>
+        <v>0.920195895276243</v>
       </c>
       <c r="P2">
-        <v>0.1663877219554525</v>
+        <v>0.920195895276243</v>
       </c>
       <c r="Q2">
-        <v>0.02350021194733333</v>
+        <v>0.07618605706533332</v>
       </c>
       <c r="R2">
-        <v>0.211501907526</v>
+        <v>0.6856745135879999</v>
       </c>
       <c r="S2">
-        <v>0.05452001643968971</v>
+        <v>0.920195895276243</v>
       </c>
       <c r="T2">
-        <v>0.05452001643968973</v>
+        <v>0.920195895276243</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,13 +578,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -596,294 +593,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.7488436666666667</v>
+        <v>0.327697</v>
       </c>
       <c r="H3">
-        <v>2.246531</v>
+        <v>0.9830909999999999</v>
       </c>
       <c r="I3">
-        <v>0.3276685070205272</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.3276685070205272</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.1572256666666667</v>
+        <v>0.02016266666666667</v>
       </c>
       <c r="N3">
-        <v>0.471677</v>
+        <v>0.060488</v>
       </c>
       <c r="O3">
-        <v>0.8336122780445475</v>
+        <v>0.07980410472375705</v>
       </c>
       <c r="P3">
-        <v>0.8336122780445476</v>
+        <v>0.07980410472375705</v>
       </c>
       <c r="Q3">
-        <v>0.1177374447207778</v>
+        <v>0.006607245378666665</v>
       </c>
       <c r="R3">
-        <v>1.059637002487</v>
+        <v>0.05946520840799999</v>
       </c>
       <c r="S3">
-        <v>0.2731484905808375</v>
+        <v>0.07980410472375705</v>
       </c>
       <c r="T3">
-        <v>0.2731484905808376</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G4">
-        <v>0.03218533333333333</v>
-      </c>
-      <c r="H4">
-        <v>0.09655599999999999</v>
-      </c>
-      <c r="I4">
-        <v>0.01408320667013899</v>
-      </c>
-      <c r="J4">
-        <v>0.01408320667013899</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M4">
-        <v>0.031382</v>
-      </c>
-      <c r="N4">
-        <v>0.09414600000000001</v>
-      </c>
-      <c r="O4">
-        <v>0.1663877219554525</v>
-      </c>
-      <c r="P4">
-        <v>0.1663877219554525</v>
-      </c>
-      <c r="Q4">
-        <v>0.001010040130666667</v>
-      </c>
-      <c r="R4">
-        <v>0.009090361175999999</v>
-      </c>
-      <c r="S4">
-        <v>0.00234327267567226</v>
-      </c>
-      <c r="T4">
-        <v>0.002343272675672261</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.03218533333333333</v>
-      </c>
-      <c r="H5">
-        <v>0.09655599999999999</v>
-      </c>
-      <c r="I5">
-        <v>0.01408320667013899</v>
-      </c>
-      <c r="J5">
-        <v>0.01408320667013899</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.1572256666666667</v>
-      </c>
-      <c r="N5">
-        <v>0.471677</v>
-      </c>
-      <c r="O5">
-        <v>0.8336122780445475</v>
-      </c>
-      <c r="P5">
-        <v>0.8336122780445476</v>
-      </c>
-      <c r="Q5">
-        <v>0.005060360490222222</v>
-      </c>
-      <c r="R5">
-        <v>0.04554324441199999</v>
-      </c>
-      <c r="S5">
-        <v>0.01173993399446673</v>
-      </c>
-      <c r="T5">
-        <v>0.01173993399446673</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G6">
-        <v>1.504340666666667</v>
-      </c>
-      <c r="H6">
-        <v>4.513022</v>
-      </c>
-      <c r="I6">
-        <v>0.6582482863093337</v>
-      </c>
-      <c r="J6">
-        <v>0.6582482863093339</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.031382</v>
-      </c>
-      <c r="N6">
-        <v>0.09414600000000001</v>
-      </c>
-      <c r="O6">
-        <v>0.1663877219554525</v>
-      </c>
-      <c r="P6">
-        <v>0.1663877219554525</v>
-      </c>
-      <c r="Q6">
-        <v>0.04720921880133334</v>
-      </c>
-      <c r="R6">
-        <v>0.4248829692120001</v>
-      </c>
-      <c r="S6">
-        <v>0.1095244328400905</v>
-      </c>
-      <c r="T6">
-        <v>0.1095244328400905</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G7">
-        <v>1.504340666666667</v>
-      </c>
-      <c r="H7">
-        <v>4.513022</v>
-      </c>
-      <c r="I7">
-        <v>0.6582482863093337</v>
-      </c>
-      <c r="J7">
-        <v>0.6582482863093339</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.1572256666666667</v>
-      </c>
-      <c r="N7">
-        <v>0.471677</v>
-      </c>
-      <c r="O7">
-        <v>0.8336122780445475</v>
-      </c>
-      <c r="P7">
-        <v>0.8336122780445476</v>
-      </c>
-      <c r="Q7">
-        <v>0.2365209642104445</v>
-      </c>
-      <c r="R7">
-        <v>2.128688677894</v>
-      </c>
-      <c r="S7">
-        <v>0.5487238534692432</v>
-      </c>
-      <c r="T7">
-        <v>0.5487238534692434</v>
+        <v>0.07980410472375705</v>
       </c>
     </row>
   </sheetData>
